--- a/calibragem/graspgeral.xlsx
+++ b/calibragem/graspgeral.xlsx
@@ -957,7 +957,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -4847,7 +4847,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -8736,8 +8736,8 @@
   <sheetPr/>
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="N79">
         <f ca="1" t="shared" si="13"/>
-        <v>0.946618043348712</v>
+        <v>0.94616413364751</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="N80">
         <f ca="1" t="shared" si="13"/>
-        <v>0.66760615112457</v>
+        <v>0.667286029497155</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -12225,10 +12225,19 @@
       </c>
       <c r="N81">
         <f ca="1" t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14">
+        <v>0.999520493292525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <v>188274</v>
+      </c>
       <c r="E82" s="1">
         <v>82</v>
       </c>
@@ -12251,18 +12260,27 @@
       </c>
       <c r="L82">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N82">
         <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14">
+        <v>0.705301920649132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>300</v>
+      </c>
+      <c r="C83">
+        <v>266941</v>
+      </c>
       <c r="E83" s="1">
         <v>83</v>
       </c>
@@ -12289,14 +12307,23 @@
       </c>
       <c r="M83">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N83">
         <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>300</v>
+      </c>
+      <c r="C84">
+        <v>184584</v>
+      </c>
       <c r="E84" s="1">
         <v>84</v>
       </c>
@@ -12319,18 +12346,27 @@
       </c>
       <c r="L84">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N84">
         <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14">
+        <v>0.691478641347714</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>296273</v>
+      </c>
       <c r="E85" s="1">
         <v>85</v>
       </c>
@@ -12357,14 +12393,23 @@
       </c>
       <c r="M85">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N85" t="e">
+        <v>100</v>
+      </c>
+      <c r="N85">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14">
+        <v>0.95000400814455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>222280</v>
+      </c>
       <c r="E86" s="1">
         <v>86</v>
       </c>
@@ -12387,18 +12432,27 @@
       </c>
       <c r="L86">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N86" t="e">
+        <v>100</v>
+      </c>
+      <c r="N86">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14">
+        <v>0.712744296410306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+      <c r="C87">
+        <v>303469</v>
+      </c>
       <c r="E87" s="1">
         <v>87</v>
       </c>
@@ -12425,14 +12479,23 @@
       </c>
       <c r="M87">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N87" t="e">
+        <v>200</v>
+      </c>
+      <c r="N87">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14">
+        <v>0.973078094688407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+      <c r="C88">
+        <v>239050</v>
+      </c>
       <c r="E88" s="1">
         <v>88</v>
       </c>
@@ -12455,18 +12518,27 @@
       </c>
       <c r="L88">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N88" t="e">
+        <v>200</v>
+      </c>
+      <c r="N88">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14">
+        <v>0.766517563689417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>300</v>
+      </c>
+      <c r="C89">
+        <v>311865</v>
+      </c>
       <c r="E89" s="1">
         <v>89</v>
       </c>
@@ -12493,14 +12565,23 @@
       </c>
       <c r="M89">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N89" t="e">
+        <v>300</v>
+      </c>
+      <c r="N89">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>300</v>
+      </c>
+      <c r="C90">
+        <v>232706</v>
+      </c>
       <c r="E90" s="1">
         <v>90</v>
       </c>
@@ -12523,15 +12604,15 @@
       </c>
       <c r="L90">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N90" t="e">
+        <v>300</v>
+      </c>
+      <c r="N90">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>0.746175428470652</v>
       </c>
     </row>
   </sheetData>
@@ -12543,10 +12624,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -12554,7 +12635,7 @@
     <col min="14" max="14" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1">
         <v>0</v>
       </c>
@@ -12596,8 +12677,12 @@
         <f ca="1" t="shared" ref="N1:N64" si="6">C1/LARGE(INDIRECT(I1):INDIRECT(J1),1)</f>
         <v>0.922019913606231</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="str">
+        <f>CONCATENATE(CONCATENATE(L1," "),M1)</f>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12639,8 +12724,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.970580979724233</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O33" si="7">CONCATENATE(CONCATENATE(L2," "),M2)</f>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -12682,8 +12771,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.925242621625735</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="str">
+        <f t="shared" si="7"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12725,8 +12818,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.989775512667762</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="str">
+        <f t="shared" si="7"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -12768,8 +12865,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.920308834104019</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="str">
+        <f t="shared" si="7"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12811,8 +12912,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="str">
+        <f t="shared" si="7"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -12854,8 +12959,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.938316375139714</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="str">
+        <f t="shared" si="7"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12897,8 +13006,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.746924222239636</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="str">
+        <f t="shared" si="7"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -12940,8 +13053,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.997169624555079</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="str">
+        <f t="shared" si="7"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -12983,8 +13100,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.788898329202051</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="str">
+        <f t="shared" si="7"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -13026,8 +13147,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="str">
+        <f t="shared" si="7"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13069,8 +13194,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.776008521028298</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="str">
+        <f t="shared" si="7"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>0</v>
       </c>
@@ -13112,8 +13241,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.963392396632458</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="str">
+        <f t="shared" si="7"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -13155,8 +13288,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.858530335089123</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="str">
+        <f t="shared" si="7"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>0</v>
       </c>
@@ -13198,8 +13335,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.987363594644097</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="str">
+        <f t="shared" si="7"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13241,8 +13382,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.89474603322869</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="str">
+        <f t="shared" si="7"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>0</v>
       </c>
@@ -13284,8 +13429,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="str">
+        <f t="shared" si="7"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1</v>
       </c>
@@ -13327,8 +13476,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.903282663168625</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="str">
+        <f t="shared" si="7"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -13370,8 +13523,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.956693305131245</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" t="str">
+        <f t="shared" si="7"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -13413,8 +13570,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.999795307422665</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" t="str">
+        <f t="shared" si="7"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -13456,8 +13617,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.969597466360765</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="str">
+        <f t="shared" si="7"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1</v>
       </c>
@@ -13499,8 +13664,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="str">
+        <f t="shared" si="7"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>0</v>
       </c>
@@ -13542,8 +13711,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.957381299627289</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" t="str">
+        <f t="shared" si="7"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -13585,8 +13758,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.999795307422665</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="str">
+        <f t="shared" si="7"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>0</v>
       </c>
@@ -13628,8 +13805,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.991024479462146</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" t="str">
+        <f t="shared" si="7"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1</v>
       </c>
@@ -13671,8 +13852,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.956515296488539</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" t="str">
+        <f t="shared" si="7"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>0</v>
       </c>
@@ -13714,8 +13899,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" t="str">
+        <f t="shared" si="7"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -13757,8 +13946,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.959898051634645</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" t="str">
+        <f t="shared" si="7"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>0</v>
       </c>
@@ -13800,8 +13993,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.988966883716204</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="str">
+        <f t="shared" si="7"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -13843,8 +14040,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.960943784452028</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" t="str">
+        <f t="shared" si="7"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>0</v>
       </c>
@@ -13886,8 +14087,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.997054804792295</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" t="str">
+        <f t="shared" si="7"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>1</v>
       </c>
@@ -13929,8 +14134,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.933905987036142</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" t="str">
+        <f t="shared" si="7"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>0</v>
       </c>
@@ -13972,8 +14181,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.997479712728909</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" t="str">
+        <f t="shared" si="7"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1</v>
       </c>
@@ -14015,8 +14228,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.940008831419859</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" t="str">
+        <f t="shared" ref="O34:O65" si="8">CONCATENATE(CONCATENATE(L34," "),M34)</f>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>0</v>
       </c>
@@ -14058,8 +14275,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" t="str">
+        <f t="shared" si="8"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1</v>
       </c>
@@ -14101,8 +14322,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.943041507673337</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" t="str">
+        <f t="shared" si="8"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>0</v>
       </c>
@@ -14144,8 +14369,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.962203098392198</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" t="str">
+        <f t="shared" si="8"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1</v>
       </c>
@@ -14187,8 +14416,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.979208594112834</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" t="str">
+        <f t="shared" si="8"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>0</v>
       </c>
@@ -14230,8 +14463,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.966944124997236</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1</v>
       </c>
@@ -14273,8 +14510,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.98875422960391</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" t="str">
+        <f t="shared" si="8"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>0</v>
       </c>
@@ -14316,8 +14557,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.973617500055289</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" t="str">
+        <f t="shared" si="8"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1</v>
       </c>
@@ -14359,8 +14604,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" t="str">
+        <f t="shared" si="8"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>0</v>
       </c>
@@ -14402,8 +14651,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.961200400019374</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" t="str">
+        <f t="shared" si="8"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1</v>
       </c>
@@ -14445,8 +14698,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.799429032175348</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" t="str">
+        <f t="shared" si="8"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>0</v>
       </c>
@@ -14488,8 +14745,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.975548673297567</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" t="str">
+        <f t="shared" si="8"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1</v>
       </c>
@@ -14531,8 +14792,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.797585638050846</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" t="str">
+        <f t="shared" si="8"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>0</v>
       </c>
@@ -14574,8 +14839,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" t="str">
+        <f t="shared" si="8"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1</v>
       </c>
@@ -14617,8 +14886,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.823780638948325</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" t="str">
+        <f t="shared" si="8"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>0</v>
       </c>
@@ -14660,8 +14933,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.945141652683982</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" t="str">
+        <f t="shared" si="8"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>1</v>
       </c>
@@ -14703,8 +14980,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.749179759544049</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" t="str">
+        <f t="shared" si="8"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>0</v>
       </c>
@@ -14746,8 +15027,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.979168804515136</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" t="str">
+        <f t="shared" si="8"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1</v>
       </c>
@@ -14789,8 +15074,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.761446618501518</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" t="str">
+        <f t="shared" si="8"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>0</v>
       </c>
@@ -14832,8 +15121,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" t="str">
+        <f t="shared" si="8"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>1</v>
       </c>
@@ -14875,8 +15168,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.767292998488483</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" t="str">
+        <f t="shared" si="8"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>0</v>
       </c>
@@ -14918,8 +15215,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.92051135715101</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" t="str">
+        <f t="shared" si="8"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>1</v>
       </c>
@@ -14961,8 +15262,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.973321158163071</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" t="str">
+        <f t="shared" si="8"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>0</v>
       </c>
@@ -15004,8 +15309,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.915306471863942</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" t="str">
+        <f t="shared" si="8"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>1</v>
       </c>
@@ -15047,8 +15356,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" t="str">
+        <f t="shared" si="8"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>0</v>
       </c>
@@ -15090,8 +15403,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.923227942015752</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" t="str">
+        <f t="shared" si="8"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>1</v>
       </c>
@@ -15133,8 +15450,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.971076361145988</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" t="str">
+        <f t="shared" si="8"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>0</v>
       </c>
@@ -15176,8 +15497,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.955826031722308</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" t="str">
+        <f t="shared" si="8"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>1</v>
       </c>
@@ -15219,8 +15544,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.738639689627042</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" t="str">
+        <f t="shared" si="8"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>0</v>
       </c>
@@ -15262,8 +15591,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.99766005940927</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" t="str">
+        <f t="shared" si="8"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>1</v>
       </c>
@@ -15305,8 +15638,12 @@
         <f ca="1" t="shared" si="6"/>
         <v>0.792835080115331</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" t="str">
+        <f t="shared" si="8"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>0</v>
       </c>
@@ -15320,36 +15657,40 @@
         <v>65</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" ref="F65:F90" si="7">QUOTIENT(E65-1,6)*6+1</f>
+        <f t="shared" ref="F65:F90" si="9">QUOTIENT(E65-1,6)*6+1</f>
         <v>61</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" ref="G65:G90" si="8">QUOTIENT(E65-1,6)*6+6</f>
+        <f t="shared" ref="G65:G90" si="10">QUOTIENT(E65-1,6)*6+6</f>
         <v>66</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="str">
-        <f t="shared" ref="I65:I90" si="9">CONCATENATE("C",F65)</f>
+        <f t="shared" ref="I65:I90" si="11">CONCATENATE("C",F65)</f>
         <v>C61</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f t="shared" ref="J65:J90" si="10">CONCATENATE("C",G65)</f>
+        <f t="shared" ref="J65:J90" si="12">CONCATENATE("C",G65)</f>
         <v>C66</v>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:L90" si="11">A65</f>
+        <f t="shared" ref="L65:L90" si="13">A65</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" ref="M65:M90" si="12">B65</f>
+        <f t="shared" ref="M65:M90" si="14">B65</f>
         <v>300</v>
       </c>
       <c r="N65">
-        <f ca="1" t="shared" ref="N65:N90" si="13">C65/LARGE(INDIRECT(I65):INDIRECT(J65),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <f ca="1" t="shared" ref="N65:N90" si="15">C65/LARGE(INDIRECT(I65):INDIRECT(J65),1)</f>
+        <v>1</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="8"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>1</v>
       </c>
@@ -15363,36 +15704,40 @@
         <v>66</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C61</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C66</v>
       </c>
       <c r="L66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="N66">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="15"/>
         <v>0.847657879823889</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" t="str">
+        <f t="shared" ref="O66:O90" si="16">CONCATENATE(CONCATENATE(L66," "),M66)</f>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>0</v>
       </c>
@@ -15406,36 +15751,40 @@
         <v>67</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C67</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C72</v>
       </c>
       <c r="L67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="N67">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="15"/>
         <v>0.953493421946644</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" t="str">
+        <f t="shared" si="16"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>1</v>
       </c>
@@ -15449,36 +15798,40 @@
         <v>68</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C67</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C72</v>
       </c>
       <c r="L68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="N68">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="15"/>
         <v>0.841190900137711</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" t="str">
+        <f t="shared" si="16"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>0</v>
       </c>
@@ -15492,36 +15845,40 @@
         <v>69</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C67</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C72</v>
       </c>
       <c r="L69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="N69">
-        <f ca="1" t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="16"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>1</v>
       </c>
@@ -15535,36 +15892,40 @@
         <v>70</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C67</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C72</v>
       </c>
       <c r="L70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="N70">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="15"/>
         <v>0.882100774292427</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" t="str">
+        <f t="shared" si="16"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>0</v>
       </c>
@@ -15578,36 +15939,40 @@
         <v>71</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C67</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C72</v>
       </c>
       <c r="L71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="N71">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="15"/>
         <v>0.97309379347252</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" t="str">
+        <f t="shared" si="16"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>1</v>
       </c>
@@ -15621,36 +15986,40 @@
         <v>72</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C67</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C72</v>
       </c>
       <c r="L72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="N72">
-        <f ca="1" t="shared" si="13"/>
+        <f ca="1" t="shared" si="15"/>
         <v>0.906771101114718</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" t="str">
+        <f t="shared" si="16"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>0</v>
       </c>
@@ -15664,611 +16033,836 @@
         <v>73</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C73</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C78</v>
       </c>
       <c r="L73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="N73">
-        <f ca="1" t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="5:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.934152175448866</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="16"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>484345</v>
+      </c>
       <c r="E74" s="1">
         <v>74</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C73</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C78</v>
       </c>
       <c r="L74">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M74">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="N74">
-        <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="5:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.977655097241706</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="16"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <v>461884</v>
+      </c>
       <c r="E75" s="1">
         <v>75</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C73</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C78</v>
       </c>
       <c r="L75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M75">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="N75">
-        <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="5:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.932317350100421</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="16"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>492944</v>
+      </c>
       <c r="E76" s="1">
         <v>76</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C73</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C78</v>
       </c>
       <c r="L76">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="N76">
-        <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="5:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.995012262446636</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="16"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77">
+        <v>476355</v>
+      </c>
       <c r="E77" s="1">
         <v>77</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C73</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C78</v>
       </c>
       <c r="L77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
       </c>
       <c r="N77">
-        <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="5:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.961527204464944</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="16"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>300</v>
+      </c>
+      <c r="C78">
+        <v>495415</v>
+      </c>
       <c r="E78" s="1">
         <v>78</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C73</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C78</v>
       </c>
       <c r="L78">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M78">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
       </c>
       <c r="N78">
-        <f ca="1" t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="5:14">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="16"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>255720</v>
+      </c>
       <c r="E79" s="1">
         <v>79</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C79</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C84</v>
       </c>
       <c r="L79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N79" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="N79">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="16"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>179890</v>
+      </c>
       <c r="E80" s="1">
         <v>80</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C79</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C84</v>
       </c>
       <c r="L80">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M80">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N80" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="81" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="N80">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.703464727045206</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="16"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+      <c r="C81">
+        <v>253378</v>
+      </c>
       <c r="E81" s="1">
         <v>81</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C79</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C84</v>
       </c>
       <c r="L81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N81" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="N81">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.990841545440325</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="16"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <v>184566</v>
+      </c>
       <c r="E82" s="1">
         <v>82</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C79</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C84</v>
       </c>
       <c r="L82">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M82">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N82" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="N82">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.721750351947443</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="16"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>300</v>
+      </c>
+      <c r="C83">
+        <v>254143</v>
+      </c>
       <c r="E83" s="1">
         <v>83</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C79</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C84</v>
       </c>
       <c r="L83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N83" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="N83">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.993833098701705</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="16"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>300</v>
+      </c>
+      <c r="C84">
+        <v>186273</v>
+      </c>
       <c r="E84" s="1">
         <v>84</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C79</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C84</v>
       </c>
       <c r="L84">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N84" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="N84">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.728425621773815</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="16"/>
+        <v>1 300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>298198</v>
+      </c>
       <c r="E85" s="1">
         <v>85</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C85</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C90</v>
       </c>
       <c r="L85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N85" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="N85">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.978035061250594</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="16"/>
+        <v>0 100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>222910</v>
+      </c>
       <c r="E86" s="1">
         <v>86</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C85</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C90</v>
       </c>
       <c r="L86">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M86">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N86" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="N86">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.731104150609226</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="16"/>
+        <v>1 100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+      <c r="C87">
+        <v>298821</v>
+      </c>
       <c r="E87" s="1">
         <v>87</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C85</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C90</v>
       </c>
       <c r="L87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N87" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="N87">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.980078387641647</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="16"/>
+        <v>0 200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+      <c r="C88">
+        <v>225422</v>
+      </c>
       <c r="E88" s="1">
         <v>88</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C85</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C90</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M88">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N88" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="N88">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.73934305252628</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="16"/>
+        <v>1 200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>300</v>
+      </c>
+      <c r="C89">
+        <v>304895</v>
+      </c>
       <c r="E89" s="1">
         <v>89</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C85</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C90</v>
       </c>
       <c r="L89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N89" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="N89">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="16"/>
+        <v>0 300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>300</v>
+      </c>
+      <c r="C90">
+        <v>241354</v>
+      </c>
       <c r="E90" s="1">
         <v>90</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>C85</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C90</v>
       </c>
       <c r="L90">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M90">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N90" t="e">
-        <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="N90">
+        <f ca="1" t="shared" si="15"/>
+        <v>0.79159710720084</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="16"/>
+        <v>1 300</v>
       </c>
     </row>
   </sheetData>
@@ -16282,8 +16876,8 @@
   <sheetPr/>
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -18785,7 +19379,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="5:14">
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>300</v>
+      </c>
+      <c r="C59">
+        <v>116638</v>
+      </c>
       <c r="E59" s="1">
         <v>59</v>
       </c>
@@ -18812,14 +19415,23 @@
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N59">
         <f ca="1" t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="5:14">
+        <v>0.928350843680357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>300</v>
+      </c>
+      <c r="C60">
+        <v>124961</v>
+      </c>
       <c r="E60" s="1">
         <v>60</v>
       </c>
@@ -18842,18 +19454,27 @@
       </c>
       <c r="L60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N60">
         <f ca="1" t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="5:14">
+        <v>0.994595670168736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>56370.4</v>
+      </c>
       <c r="E61" s="1">
         <v>61</v>
       </c>
@@ -18880,14 +19501,23 @@
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N61" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="5:14">
+        <v>100</v>
+      </c>
+      <c r="N61">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.919155042109297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62">
+        <v>47071</v>
+      </c>
       <c r="E62" s="1">
         <v>62</v>
       </c>
@@ -18910,18 +19540,27 @@
       </c>
       <c r="L62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N62" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="5:14">
+        <v>100</v>
+      </c>
+      <c r="N62">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.767522440627115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="C63">
+        <v>61328.5</v>
+      </c>
       <c r="E63" s="1">
         <v>63</v>
       </c>
@@ -18948,14 +19587,23 @@
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N63" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="5:14">
+        <v>200</v>
+      </c>
+      <c r="N63">
+        <f ca="1" t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+      <c r="C64">
+        <v>51014.5</v>
+      </c>
       <c r="E64" s="1">
         <v>64</v>
       </c>
@@ -18978,18 +19626,27 @@
       </c>
       <c r="L64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N64" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="5:14">
+        <v>200</v>
+      </c>
+      <c r="N64">
+        <f ca="1" t="shared" si="6"/>
+        <v>0.831823703498374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>300</v>
+      </c>
+      <c r="C65">
+        <v>60914.3</v>
+      </c>
       <c r="E65" s="1">
         <v>65</v>
       </c>
@@ -19016,14 +19673,23 @@
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M90" si="12">B65</f>
-        <v>0</v>
-      </c>
-      <c r="N65" t="e">
+        <v>300</v>
+      </c>
+      <c r="N65">
         <f ca="1" t="shared" ref="N65:N90" si="13">C65/LARGE(INDIRECT(I65):INDIRECT(J65),1)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="5:14">
+        <v>0.993246206902174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>300</v>
+      </c>
+      <c r="C66">
+        <v>51319</v>
+      </c>
       <c r="E66" s="1">
         <v>66</v>
       </c>
@@ -19046,18 +19712,27 @@
       </c>
       <c r="L66">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N66" t="e">
+        <v>300</v>
+      </c>
+      <c r="N66">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="5:14">
+        <v>0.836788768680141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>64043.5</v>
+      </c>
       <c r="E67" s="1">
         <v>67</v>
       </c>
@@ -19084,14 +19759,23 @@
       </c>
       <c r="M67">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N67" t="e">
+        <v>100</v>
+      </c>
+      <c r="N67">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="5:14">
+        <v>0.991663298849987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68">
+        <v>54691.2</v>
+      </c>
       <c r="E68" s="1">
         <v>68</v>
       </c>
@@ -19114,18 +19798,27 @@
       </c>
       <c r="L68">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N68" t="e">
+        <v>100</v>
+      </c>
+      <c r="N68">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="5:14">
+        <v>0.8468502784836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+      <c r="C69">
+        <v>64531</v>
+      </c>
       <c r="E69" s="1">
         <v>69</v>
       </c>
@@ -19152,14 +19845,23 @@
       </c>
       <c r="M69">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N69" t="e">
+        <v>200</v>
+      </c>
+      <c r="N69">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="5:14">
+        <v>0.999211853475974</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+      <c r="C70">
+        <v>59173.3</v>
+      </c>
       <c r="E70" s="1">
         <v>70</v>
       </c>
@@ -19182,18 +19884,27 @@
       </c>
       <c r="L70">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N70" t="e">
+        <v>200</v>
+      </c>
+      <c r="N70">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="5:14">
+        <v>0.916252076820286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>300</v>
+      </c>
+      <c r="C71">
+        <v>64581.9</v>
+      </c>
       <c r="E71" s="1">
         <v>71</v>
       </c>
@@ -19220,14 +19931,23 @@
       </c>
       <c r="M71">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N71" t="e">
+        <v>300</v>
+      </c>
+      <c r="N71">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="5:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>300</v>
+      </c>
+      <c r="C72">
+        <v>61404.3</v>
+      </c>
       <c r="E72" s="1">
         <v>72</v>
       </c>
@@ -19250,18 +19970,27 @@
       </c>
       <c r="L72">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N72" t="e">
+        <v>300</v>
+      </c>
+      <c r="N72">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="5:14">
+        <v>0.950797359631724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>454806</v>
+      </c>
       <c r="E73" s="1">
         <v>73</v>
       </c>
@@ -19288,14 +20017,23 @@
       </c>
       <c r="M73">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N73" t="e">
+        <v>100</v>
+      </c>
+      <c r="N73">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="74" spans="5:14">
+        <v>0.928563991057483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>477944</v>
+      </c>
       <c r="E74" s="1">
         <v>74</v>
       </c>
@@ -19318,18 +20056,27 @@
       </c>
       <c r="L74">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N74" t="e">
+        <v>100</v>
+      </c>
+      <c r="N74">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="5:14">
+        <v>0.975804162966139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+      <c r="C75">
+        <v>454617</v>
+      </c>
       <c r="E75" s="1">
         <v>75</v>
       </c>
@@ -19356,14 +20103,23 @@
       </c>
       <c r="M75">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N75" t="e">
+        <v>200</v>
+      </c>
+      <c r="N75">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="76" spans="5:14">
+        <v>0.928178115333966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>478627</v>
+      </c>
       <c r="E76" s="1">
         <v>76</v>
       </c>
@@ -19386,18 +20142,27 @@
       </c>
       <c r="L76">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N76" t="e">
+        <v>200</v>
+      </c>
+      <c r="N76">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="77" spans="5:14">
+        <v>0.977198623914087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77">
+        <v>468503</v>
+      </c>
       <c r="E77" s="1">
         <v>77</v>
       </c>
@@ -19424,14 +20189,23 @@
       </c>
       <c r="M77">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N77" t="e">
+        <v>300</v>
+      </c>
+      <c r="N77">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="78" spans="5:14">
+        <v>0.956528751824743</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>300</v>
+      </c>
+      <c r="C78">
+        <v>489795</v>
+      </c>
       <c r="E78" s="1">
         <v>78</v>
       </c>
@@ -19454,18 +20228,27 @@
       </c>
       <c r="L78">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N78" t="e">
+        <v>300</v>
+      </c>
+      <c r="N78">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="79" spans="5:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>249446</v>
+      </c>
       <c r="E79" s="1">
         <v>79</v>
       </c>
@@ -19492,14 +20275,23 @@
       </c>
       <c r="M79">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N79" t="e">
+        <v>100</v>
+      </c>
+      <c r="N79">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="5:14">
+        <v>0.997959640896798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>174275</v>
+      </c>
       <c r="E80" s="1">
         <v>80</v>
       </c>
@@ -19522,18 +20314,27 @@
       </c>
       <c r="L80">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N80" t="e">
+        <v>100</v>
+      </c>
+      <c r="N80">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="81" spans="5:14">
+        <v>0.697222711197171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+      <c r="C81">
+        <v>240989</v>
+      </c>
       <c r="E81" s="1">
         <v>81</v>
       </c>
@@ -19560,14 +20361,23 @@
       </c>
       <c r="M81">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N81" t="e">
+        <v>200</v>
+      </c>
+      <c r="N81">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14">
+        <v>0.964125686120757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+      <c r="C82">
+        <v>176307</v>
+      </c>
       <c r="E82" s="1">
         <v>82</v>
       </c>
@@ -19590,18 +20400,27 @@
       </c>
       <c r="L82">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N82" t="e">
+        <v>200</v>
+      </c>
+      <c r="N82">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14">
+        <v>0.705352141976988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>300</v>
+      </c>
+      <c r="C83">
+        <v>249956</v>
+      </c>
       <c r="E83" s="1">
         <v>83</v>
       </c>
@@ -19628,14 +20447,23 @@
       </c>
       <c r="M83">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N83" t="e">
+        <v>300</v>
+      </c>
+      <c r="N83">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>300</v>
+      </c>
+      <c r="C84">
+        <v>178821</v>
+      </c>
       <c r="E84" s="1">
         <v>84</v>
       </c>
@@ -19658,18 +20486,27 @@
       </c>
       <c r="L84">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N84" t="e">
+        <v>300</v>
+      </c>
+      <c r="N84">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14">
+        <v>0.715409912144537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>284839</v>
+      </c>
       <c r="E85" s="1">
         <v>85</v>
       </c>
@@ -19696,14 +20533,23 @@
       </c>
       <c r="M85">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N85" t="e">
+        <v>100</v>
+      </c>
+      <c r="N85">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14">
+        <v>0.966633974839737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>218614</v>
+      </c>
       <c r="E86" s="1">
         <v>86</v>
       </c>
@@ -19726,18 +20572,27 @@
       </c>
       <c r="L86">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N86" t="e">
+        <v>100</v>
+      </c>
+      <c r="N86">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14">
+        <v>0.741891804758527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+      <c r="C87">
+        <v>289719</v>
+      </c>
       <c r="E87" s="1">
         <v>87</v>
       </c>
@@ -19764,14 +20619,23 @@
       </c>
       <c r="M87">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N87" t="e">
+        <v>200</v>
+      </c>
+      <c r="N87">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14">
+        <v>0.983194817270787</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+      <c r="C88">
+        <v>226944</v>
+      </c>
       <c r="E88" s="1">
         <v>88</v>
       </c>
@@ -19794,18 +20658,27 @@
       </c>
       <c r="L88">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N88" t="e">
+        <v>200</v>
+      </c>
+      <c r="N88">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14">
+        <v>0.77016061980989</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>300</v>
+      </c>
+      <c r="C89">
+        <v>294671</v>
+      </c>
       <c r="E89" s="1">
         <v>89</v>
       </c>
@@ -19832,14 +20705,23 @@
       </c>
       <c r="M89">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N89" t="e">
+        <v>300</v>
+      </c>
+      <c r="N89">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>300</v>
+      </c>
+      <c r="C90">
+        <v>230324</v>
+      </c>
       <c r="E90" s="1">
         <v>90</v>
       </c>
@@ -19862,15 +20744,15 @@
       </c>
       <c r="L90">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N90" t="e">
+        <v>300</v>
+      </c>
+      <c r="N90">
         <f ca="1" t="shared" si="13"/>
-        <v>#NUM!</v>
+        <v>0.781631039362543</v>
       </c>
     </row>
   </sheetData>
